--- a/購入物/電子部品.xlsx
+++ b/購入物/電子部品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k16025kk/Documents/github/FTW-TT_50_USB/購入物/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FCDC33-87FB-A34B-86CF-51E9977FCB8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EAA067-1C64-DB4C-9ACE-EFD567B6ED13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{5FAAFC26-D07D-314A-A33C-987A95554737}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pic16f1454</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>個数</t>
     <rPh sb="0" eb="2">
       <t>コスウ</t>
@@ -75,9 +71,6 @@
     <t>CB1029</t>
   </si>
   <si>
-    <t>https://www.takaha.co.jp/co/cb/</t>
-  </si>
-  <si>
     <t>USBタイプA(オス)</t>
     <rPh sb="0" eb="1">
       <t>オス</t>
@@ -85,14 +78,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gC-02236/</t>
-  </si>
-  <si>
     <t>コネクタ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-14680/</t>
   </si>
   <si>
     <t>合計</t>
@@ -106,9 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-15703/</t>
-  </si>
-  <si>
     <t>スライドスイッチ　１回路２接点　基板用　横向き</t>
   </si>
   <si>
@@ -116,9 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-08999/</t>
-  </si>
-  <si>
     <t>ショットキーバリアダイオード　６０Ｖ１Ａ　１１ＥＱＳ０６　（１０本入）</t>
   </si>
   <si>
@@ -126,9 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-00006/</t>
-  </si>
-  <si>
     <t>ＩＣソケット　（１４Ｐ）　（１０個入）</t>
   </si>
   <si>
@@ -138,9 +116,6 @@
   <si>
     <t>ＮｃｈパワーＭＯＳＦＥＴ　６０Ｖ５Ａ　２ＳＫ４０１７（Ｑ）</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-07597/</t>
   </si>
   <si>
     <t>基板</t>
@@ -157,9 +132,6 @@
     <t>電解コンデンサー　４７μＦ１６Ｖ１０５℃　ルビコンＰＸ</t>
   </si>
   <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-10270/</t>
-  </si>
-  <si>
     <t>積層セラミックコンデンサ</t>
     <rPh sb="0" eb="2">
       <t>コンデンｓナ</t>
@@ -178,36 +150,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>100Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片面ガラスコンポジット・ユニバーサル基板　Ｂタイプ　めっき仕上げ　（９５×７２ｍｍ）　日本製</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.47uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-15938/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC16F1454</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-14680/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-02236/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-15703/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-08999/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-07597/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-00006/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03230/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-10270/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>https://akizukidenshi.com/catalog/g/gR-07803/</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15kΩ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://akizukidenshi.com/catalog/g/gR-07840/</t>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-03230/</t>
-  </si>
-  <si>
-    <t>片面ガラスコンポジット・ユニバーサル基板　Ｂタイプ　めっき仕上げ　（９５×７２ｍｍ）　日本製</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.1uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.47uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gP-15938/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.takaha.co.jp/co/cb/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,29 +614,29 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -633,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>190</v>
@@ -645,16 +656,16 @@
         <f>D3*E3</f>
         <v>570</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -666,16 +677,16 @@
         <f t="shared" ref="F4:F19" si="0">D4*E4</f>
         <v>150</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -687,16 +698,16 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>160</v>
@@ -708,16 +719,16 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -729,16 +740,16 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -750,16 +761,16 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -771,16 +782,16 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -792,16 +803,16 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>32</v>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -814,12 +825,12 @@
         <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -832,15 +843,15 @@
         <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -852,13 +863,13 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G13" t="s">
-        <v>36</v>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -870,16 +881,16 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G14" t="s">
-        <v>39</v>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
       </c>
       <c r="D17">
         <v>1220</v>
@@ -891,13 +902,13 @@
         <f t="shared" si="0"/>
         <v>2440</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>1710</v>
@@ -912,7 +923,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1830</v>
@@ -930,6 +941,17 @@
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" xr:uid="{743858E3-0C80-AD48-B533-4E3EFD50166B}"/>
     <hyperlink ref="G12" r:id="rId2" xr:uid="{B7A38068-DB37-444F-BCCF-89B28B6CF73A}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{5BF792EC-9E88-D144-B095-2DA6001ADEC6}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{DB16F2C0-1841-C74F-B937-AA52B35C9136}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{2DF7AFC6-FB43-D04F-BFFB-BDD4DE1B1A54}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{3D8652DD-DF81-EB4B-9C4C-2B25BA29CA20}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{90CF1123-3187-FD46-89D4-9E1A9C72187B}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{A4BAFE8B-4837-694D-B9BE-3C903058A2B4}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{DC7105F0-B0B4-0943-8BE6-FCC704796BB7}"/>
+    <hyperlink ref="G10" r:id="rId10" xr:uid="{CA551338-7877-E546-A6CC-8D556F45197C}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{7E1453E1-C081-3041-B17B-CEB20670C493}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{597D7DC8-3DC4-C449-87B2-5E3EE21026DC}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{602D2D68-5B5A-5F45-8015-EB8B497871A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
